--- a/PLAY画面(SPLIT)設計書_V0.3.xlsx
+++ b/PLAY画面(SPLIT)設計書_V0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1940,6 +1940,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1961,221 +2174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3059,7 +3059,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>：フリック判定後</a:t>
+            <a:t>：スライド判定後</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5320,7 +5320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B6:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5330,34 +5330,34 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:7" ht="25.5">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
     </row>
     <row r="7" spans="2:7" ht="25.5">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
     </row>
     <row r="8" spans="2:7" ht="25.5">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
     </row>
     <row r="13" spans="2:7">
       <c r="D13" s="1" t="s">
@@ -5376,20 +5376,20 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="21">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
     </row>
     <row r="22" spans="2:7" ht="21">
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="4"/>
     </row>
     <row r="31" spans="2:7">
@@ -5402,11 +5402,11 @@
       <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
@@ -5418,11 +5418,11 @@
       <c r="D32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
@@ -5434,11 +5434,11 @@
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="8" t="s">
@@ -5450,11 +5450,11 @@
       <c r="D34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5562,8 +5562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6098,505 +6098,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="46"/>
-    <col min="2" max="2" width="13.25" style="46" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="46" customWidth="1"/>
-    <col min="5" max="7" width="22.875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="52.875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9" style="46" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="13.25" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="38" customWidth="1"/>
+    <col min="5" max="7" width="22.875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="52.875" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:10" ht="41.25" thickBot="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="115"/>
+      <c r="H2" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="2:10" ht="54">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="79" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="79" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="72" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76">
+      <c r="I6" s="68"/>
+      <c r="J6" s="68">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="92" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94">
+      <c r="I7" s="86"/>
+      <c r="J7" s="86">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="83" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="72" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="73" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="105" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="102" t="s">
+      <c r="G11" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="72" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="73" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="56"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="79" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="113" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="67" t="s">
+      <c r="E18" s="57"/>
+      <c r="F18" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="114" t="s">
+      <c r="G18" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="64" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="47" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="113" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="114" t="s">
+      <c r="G23" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="56"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="64" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="56"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74">
+      <c r="F26" s="58"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="56"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69">
+      <c r="B27" s="48"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="56"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="65" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="56"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="89" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="91"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="56"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
     </row>
     <row r="31" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B31" s="57"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="64" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70">
+      <c r="I31" s="62"/>
+      <c r="J31" s="62">
         <v>9</v>
       </c>
     </row>
@@ -6618,48 +6618,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="46"/>
-    <col min="2" max="2" width="16.75" style="46" customWidth="1"/>
-    <col min="3" max="3" width="65.75" style="46" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="16.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="65.75" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="108">
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="162">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="2:3" ht="27">
+      <c r="B4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="46" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6798,5 +6798,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PLAY画面(SPLIT)設計書_V0.3.xlsx
+++ b/PLAY画面(SPLIT)設計書_V0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="レイアウト設計" sheetId="8" r:id="rId6"/>
     <sheet name="説明" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="143">
   <si>
     <t>版数</t>
     <rPh sb="0" eb="2">
@@ -631,12 +631,6 @@
     <t>動作</t>
   </si>
   <si>
-    <t>MainActivity</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>onCreate</t>
   </si>
   <si>
@@ -656,11 +650,6 @@
     <t>TextView</t>
   </si>
   <si>
-    <t>findViewById()でID01→result、,ID02→score, ID03→levelとしてTextViewを設置する。
-score_textにはscoreの数値を代入する。
-level_textはscoreの数値に応じて条件分岐をする。</t>
-  </si>
-  <si>
     <t>imageButton</t>
   </si>
   <si>
@@ -681,51 +670,6 @@
   <si>
     <t>attribute</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>layout_width/height=”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>match_parent”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>orientation="vertical”</t>
-    </r>
-  </si>
-  <si>
-    <t>imageButton *3</t>
-  </si>
-  <si>
-    <t>REPLAY, twitter, FBボタン用の画像をdrawbleディレクトリから読み込み
-ボタン用の画像として設定する。</t>
-  </si>
-  <si>
-    <t>TextView *3</t>
-  </si>
-  <si>
-    <t>”RESULT”の初期値を代入したTextViewと初期値無しのTextViewを２つ作成する。</t>
   </si>
   <si>
     <t>-</t>
@@ -762,10 +706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID:5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -808,60 +748,6 @@
     </rPh>
     <rPh sb="64" eb="66">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション（とりあえずはフェードイン想定）で画像を表示する。
-画像表示後に画面タップでリザルト画面へ遷移すること。（領域は画面全域）
-アニメーション終了までは入力を受け付けないこと。</t>
-    <rPh sb="20" eb="22">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ゼンイキ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1131,6 +1017,50 @@
   </si>
   <si>
     <t>CountDownTimerクラスを継承したクラスを作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像表示後に画面タップでリザルト画面へ遷移すること。（領域は画面全域）
+アニメーション終了までは入力を受け付けないこと。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼンイキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5320,7 +5250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B6:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5364,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -5394,7 +5324,7 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C31" s="6">
         <v>42561</v>
@@ -5549,7 +5479,7 @@
         <v>松井</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5562,9 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5680,7 +5608,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>62</v>
@@ -5700,7 +5628,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>35</v>
@@ -5729,7 +5657,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>35</v>
@@ -5802,10 +5730,10 @@
         <v>28</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -5842,7 +5770,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>24</v>
@@ -5851,16 +5779,16 @@
         <v>30</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="J14" s="25">
         <v>7</v>
@@ -5871,7 +5799,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>24</v>
@@ -5883,13 +5811,13 @@
         <v>31</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J15" s="25">
         <v>8</v>
@@ -5932,7 +5860,7 @@
   <dimension ref="B5:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5946,7 +5874,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>37</v>
@@ -5997,7 +5925,7 @@
         <v>一時停止/再開ボタン</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="27">
@@ -6012,7 +5940,7 @@
         <v>残り時間</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -6027,7 +5955,7 @@
         <v>現在のスコア</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="108">
@@ -6042,10 +5970,10 @@
         <v>スライド領域</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="40.5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="27">
       <c r="B12" s="19">
         <v>7</v>
       </c>
@@ -6057,7 +5985,7 @@
         <v>Finish</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="40.5">
@@ -6072,7 +6000,7 @@
         <v>カウントダウン</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -6098,8 +6026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6137,51 +6065,45 @@
         <v>81</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J2" s="54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="F3" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="G3" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="H3" s="79" t="s">
         <v>86</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>88</v>
       </c>
       <c r="I3" s="79"/>
       <c r="J3" s="79"/>
     </row>
-    <row r="4" spans="2:10" ht="54">
+    <row r="4" spans="2:10">
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>90</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H4" s="80"/>
       <c r="I4" s="80"/>
       <c r="J4" s="80">
         <v>5</v>
@@ -6193,13 +6115,13 @@
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
       <c r="F5" s="71" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68">
@@ -6213,10 +6135,10 @@
       <c r="E6" s="48"/>
       <c r="F6" s="71"/>
       <c r="G6" s="64" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I6" s="68"/>
       <c r="J6" s="68">
@@ -6230,10 +6152,10 @@
       <c r="E7" s="48"/>
       <c r="F7" s="93"/>
       <c r="G7" s="84" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="86">
@@ -6244,19 +6166,19 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I8" s="67"/>
       <c r="J8" s="67"/>
@@ -6268,7 +6190,7 @@
       <c r="E9" s="76"/>
       <c r="F9" s="71"/>
       <c r="G9" s="64" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
@@ -6281,7 +6203,7 @@
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="65" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
@@ -6291,16 +6213,16 @@
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="97" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G11" s="94" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -6313,7 +6235,7 @@
       <c r="E12" s="99"/>
       <c r="F12" s="100"/>
       <c r="G12" s="64" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
@@ -6326,7 +6248,7 @@
       <c r="E13" s="77"/>
       <c r="F13" s="73"/>
       <c r="G13" s="65" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -6335,7 +6257,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="48"/>
       <c r="C14" s="50" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>28</v>
@@ -6350,7 +6272,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="67" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
@@ -6361,7 +6283,7 @@
       <c r="D15" s="103"/>
       <c r="E15" s="57"/>
       <c r="F15" s="71" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G15" s="104" t="s">
         <v>28</v>
@@ -6376,7 +6298,7 @@
       <c r="D16" s="103"/>
       <c r="E16" s="57"/>
       <c r="F16" s="71" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G16" s="104" t="s">
         <v>28</v>
@@ -6400,14 +6322,14 @@
       <c r="B18" s="48"/>
       <c r="C18" s="51"/>
       <c r="D18" s="105" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E18" s="57"/>
       <c r="F18" s="59" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G18" s="106" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -6439,7 +6361,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="51"/>
       <c r="D21" s="56" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="60"/>
@@ -6452,13 +6374,13 @@
       <c r="B22" s="48"/>
       <c r="C22" s="51"/>
       <c r="D22" s="39" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E22" s="89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G22" s="91"/>
       <c r="H22" s="92"/>
@@ -6469,16 +6391,16 @@
       <c r="B23" s="48"/>
       <c r="C23" s="51"/>
       <c r="D23" s="105" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G23" s="106" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
@@ -6499,10 +6421,10 @@
       <c r="B25" s="48"/>
       <c r="C25" s="51"/>
       <c r="D25" s="56" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="65"/>
@@ -6515,7 +6437,7 @@
       <c r="C26" s="88"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="63"/>
@@ -6542,7 +6464,7 @@
       <c r="B28" s="48"/>
       <c r="C28" s="51"/>
       <c r="D28" s="57" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="59"/>
@@ -6555,10 +6477,10 @@
       <c r="B29" s="48"/>
       <c r="C29" s="51"/>
       <c r="D29" s="81" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F29" s="83"/>
       <c r="G29" s="84"/>
@@ -6581,19 +6503,19 @@
       <c r="B31" s="49"/>
       <c r="C31" s="52"/>
       <c r="D31" s="56" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H31" s="62" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I31" s="62"/>
       <c r="J31" s="62">
@@ -6618,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6633,35 +6555,23 @@
     <row r="1" spans="2:3" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:3" ht="14.25" thickBot="1">
       <c r="B2" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="27">
-      <c r="B4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>100</v>
-      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="2:3" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>102</v>
-      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
